--- a/resources/users.xlsx
+++ b/resources/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>login</t>
   </si>
@@ -22,10 +22,13 @@
     <t>password</t>
   </si>
   <si>
+    <t>rules</t>
+  </si>
+  <si>
     <t>timostar</t>
   </si>
   <si>
-    <t>12345678</t>
+    <t>Upiter98</t>
   </si>
   <si>
     <t>qwer</t>
@@ -411,69 +414,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="2" style="1" width="11.42578125"/>
+    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
